--- a/medicine/Enfance/Death_and_Burial_of_Poor_Cock_Robin/Death_and_Burial_of_Poor_Cock_Robin.xlsx
+++ b/medicine/Enfance/Death_and_Burial_of_Poor_Cock_Robin/Death_and_Burial_of_Poor_Cock_Robin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 The Death and Burial of Poor Cock Robin (littéralement « La mort et l'enterrement du Rouge-Gorge »), plus communément connue sous le nom de Who Killed Cock Robin? (littéralement « Qui a tué le Rouge-Gorge »), est une comptine anglaise du XVIIe siècle , souvent utilisée comme un archétype du meurtre. Il est répertorié dans le Roud Folk Song Index sous le numéro 494.
@@ -512,9 +524,11 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The Death and Burial of Poor Cock Robin a été publiée pour la première fois en 1744 à Londres dans Tommy Thumb's Pretty Song Booktrad. On peut traduire par Le mariage de Rouge-Gorge et Jenny Wren et La Mort et l'Enterrement de Rouge-Gorge[1]. Cette première version ne comprenait que les quatre premiers vers. La version complète ci-dessous n'a pas été publiée avant 1770. Même s'il n'y a aucune référence directe datant d'avant le milieu du XVIIIe siècle, il y a des preuves montrant une utilisation des personnages beaucoup plus ancienne. Un vitrail du XVe siècle montrant un rouge-gorge transpercé par une flèche peut être retrouvé au presbytère de Buckland. De plus, l'histoire présente plusieurs similarités avec Phyllyp Sparowe, écrite par John Skelton vers 1508.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The Death and Burial of Poor Cock Robin a été publiée pour la première fois en 1744 à Londres dans Tommy Thumb's Pretty Song Booktrad. On peut traduire par Le mariage de Rouge-Gorge et Jenny Wren et La Mort et l'Enterrement de Rouge-Gorge. Cette première version ne comprenait que les quatre premiers vers. La version complète ci-dessous n'a pas été publiée avant 1770. Même s'il n'y a aucune référence directe datant d'avant le milieu du XVIIIe siècle, il y a des preuves montrant une utilisation des personnages beaucoup plus ancienne. Un vitrail du XVe siècle montrant un rouge-gorge transpercé par une flèche peut être retrouvé au presbytère de Buckland. De plus, l'histoire présente plusieurs similarités avec Phyllyp Sparowe, écrite par John Skelton vers 1508.
 La comptine a souvent été mise en circulation avec plusieurs illustrations, pour la rendre convenable aux jeunes enfants. Il existe une autre fin pour la comptine, dans laquelle le moineau qui a tué le Rouge-gorge est pendu pour son crime.
 Plusieurs versions antérieures avaient  fait apparaître un bouvreuil trapu comme sonneur de cloches. Un bouvreuil était appelé en anglais bullfinch, ce qui ressemble beaucoup au mot taureau, qui s'écrit bull. Le passage du taureau aurait pu faire référence au bouvreuil, un oiseau comme la majorité des autres animaux cités, plutôt qu'au taureau, un animal de ferme. L'utilisation de la rime entre hibou (owl) et pelle (shovel) montre que la comptine a possiblement été utilisée alors que le moyen anglais était encore en usage. D'autres versions de l'histoire existent, notamment en Allemagne.
 Plusieurs théories ont été proposées quant à la signification de la comptine :
@@ -551,7 +565,9 @@
           <t>Paroles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Texte original
@@ -696,7 +712,9 @@
           <t>Dans la culture populaire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Qui a tué le rouge-gorge ? (Who Killed Cock Robin?) un court métrage d'animation de Disney de 1935 mettant en scène la comptine
 Le groupe musical Cock Robin tirant son nom de cette comptine
